--- a/www.eia.gov/electricity/monthly/xls/table_a_5_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_5_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.5.A. Relative Standard Error for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Industrial Sector by Census Division and State, October 2016</t>
+    <t>Industrial Sector by Census Division and State, November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1195,16 +1195,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="6">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>319</v>
+        <v>436</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="8">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="C7" s="8">
-        <v>7748</v>
+        <v>4303</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>756</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -1325,25 +1325,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6">
         <v>30</v>
       </c>
       <c r="D9" s="6">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <v>251</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1354,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E10" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>251</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,19 +1403,19 @@
         <v>18</v>
       </c>
       <c r="B12" s="8">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>19</v>
       </c>
       <c r="B13" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E13" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -1481,19 +1481,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="8">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="C15" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F15" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1507,16 +1507,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E16" s="8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,19 +1533,19 @@
         <v>23</v>
       </c>
       <c r="B17" s="8">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C17" s="8">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="D17" s="8">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="E17" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="8">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="B19" s="6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6">
+        <v>224</v>
+      </c>
+      <c r="D19" s="6">
         <v>168</v>
       </c>
-      <c r="D19" s="6">
-        <v>225</v>
-      </c>
       <c r="E19" s="6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F19" s="6">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1611,16 +1611,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D20" s="8">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="E20" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="8">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F21" s="8">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8">
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="8">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="8">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <v>268</v>
+        <v>457</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
@@ -1741,19 +1741,19 @@
         <v>31</v>
       </c>
       <c r="B25" s="8">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C25" s="8">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="F25" s="8">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>32</v>
       </c>
       <c r="B26" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,10 +1819,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="8">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C28" s="8">
-        <v>367</v>
+        <v>201</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -1845,16 +1845,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C29" s="8">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
       </c>
       <c r="E29" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>435</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1874,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="8">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>37</v>
       </c>
       <c r="B31" s="8">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C31" s="8">
-        <v>509</v>
+        <v>666</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>903</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1923,16 +1923,16 @@
         <v>38</v>
       </c>
       <c r="B32" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C32" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1949,16 +1949,16 @@
         <v>39</v>
       </c>
       <c r="B33" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" s="8">
-        <v>107</v>
+        <v>570</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>534</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2001,19 +2001,19 @@
         <v>41</v>
       </c>
       <c r="B35" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="6">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="D35" s="6">
         <v>0</v>
       </c>
       <c r="E35" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="6">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="B36" s="8">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C36" s="8">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F37" s="8">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="8">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="D39" s="8">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>46</v>
       </c>
       <c r="B40" s="6">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C40" s="6">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="D40" s="6">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
       </c>
       <c r="F40" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="8">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="D41" s="8">
         <v>0</v>
       </c>
       <c r="E41" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41" s="8">
         <v>0</v>
@@ -2189,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="8">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="E42" s="8">
         <v>2</v>
       </c>
       <c r="F42" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -2209,16 +2209,16 @@
         <v>49</v>
       </c>
       <c r="B43" s="8">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C43" s="8">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
       </c>
       <c r="E43" s="8">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="8">
-        <v>1055</v>
+        <v>408</v>
       </c>
       <c r="D44" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E44" s="8">
         <v>2</v>
       </c>
       <c r="F44" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
@@ -2261,10 +2261,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="6">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C45" s="6">
-        <v>1041</v>
+        <v>743</v>
       </c>
       <c r="D45" s="6">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>52</v>
       </c>
       <c r="B46" s="8">
-        <v>247</v>
+        <v>370</v>
       </c>
       <c r="C46" s="8">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="D46" s="8">
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="8">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F47" s="8">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="8">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="C48" s="8">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="8">
-        <v>2843</v>
+        <v>3020</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="C51" s="8">
-        <v>1434</v>
+        <v>1341</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F51" s="8">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -2443,19 +2443,19 @@
         <v>58</v>
       </c>
       <c r="B52" s="8">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C52" s="8">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F52" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -2472,16 +2472,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="6">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -2498,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="8">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="D54" s="8">
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="8">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D56" s="8">
         <v>0</v>
@@ -2573,25 +2573,25 @@
         <v>63</v>
       </c>
       <c r="B57" s="6">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C57" s="6">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F57" s="6">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G57" s="6">
         <v>0</v>
       </c>
       <c r="H57" s="6">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D58" s="8">
         <v>0</v>
       </c>
       <c r="E58" s="8">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F58" s="8">
         <v>0</v>
@@ -2625,10 +2625,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="8">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C59" s="8">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D59" s="8">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
       </c>
       <c r="H59" s="8">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2651,25 +2651,25 @@
         <v>66</v>
       </c>
       <c r="B60" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C60" s="6">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D60" s="6">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
       </c>
       <c r="F60" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
       </c>
       <c r="H60" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
